--- a/FormDataTest.xlsx
+++ b/FormDataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Katalon Studio\Website HRSV Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD368D9E-B153-4766-8D9A-8AA8E6510D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C0F1F-ECF2-48D9-B446-103584BBF2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27DE94AD-14DC-47C4-8AE5-458561D4BF7E}"/>
   </bookViews>
@@ -36,29 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Jam Mulai</t>
-  </si>
-  <si>
-    <t>Jam Selesai</t>
-  </si>
-  <si>
-    <t>Mode Kerja</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>Nama Tim</t>
-  </si>
-  <si>
     <t>Kegiatan</t>
   </si>
   <si>
@@ -68,18 +53,6 @@
     <t>Capaian</t>
   </si>
   <si>
-    <t>Next Step</t>
-  </si>
-  <si>
-    <t>Path/Filename</t>
-  </si>
-  <si>
-    <t>Detail Pekerjaan</t>
-  </si>
-  <si>
-    <t>Waktu Kerja</t>
-  </si>
-  <si>
     <t>WFO</t>
   </si>
   <si>
@@ -89,9 +62,6 @@
     <t>Jons</t>
   </si>
   <si>
-    <t>Perfomance Testing</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
@@ -113,7 +83,31 @@
     <t>Jins</t>
   </si>
   <si>
-    <t>Testing Concern</t>
+    <t>Jam_Mulai</t>
+  </si>
+  <si>
+    <t>Jam_Selesai</t>
+  </si>
+  <si>
+    <t>Mode_Kerja</t>
+  </si>
+  <si>
+    <t>Nama_Tim</t>
+  </si>
+  <si>
+    <t>Use_Case</t>
+  </si>
+  <si>
+    <t>Next_Step</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Detail_Pekerjaan</t>
+  </si>
+  <si>
+    <t>Waktu_Kerja</t>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,43 +506,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -562,19 +556,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -583,16 +577,16 @@
         <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -604,25 +598,25 @@
         <v>45595</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -631,16 +625,16 @@
         <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
